--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_227.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_227.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1132966168371361</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F', 'Bb', 'F', 'F']]</t>
-        </is>
+          <t>isophonics_294</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_30</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09285714285714286</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'A']]</t>
+          <t>[['G/3', 'G', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(62.53, 68.09)]</t>
+          <t>[['Bb', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(39.724104, 47.769818)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:01.366439', '0:00:05.255782')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:02.300000', '0:00:05.060000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.08488372093023255</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G', 'D/3', 'G']]</t>
-        </is>
+          <t>isophonics_208</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_31</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.194331983805668</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:maj/G', 'F:maj']]</t>
+          <t>[['E:min/5', 'A:min', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(14.414, 17.044)]</t>
+          <t>[['E:min', 'A:min', 'G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(29.34, 31.74)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:20.556031', '0:00:26.744149')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:30.271443', '0:00:40.941012')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>jaah_39</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_271</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1205479452054795</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['Db', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(3.9, 7.72)]</t>
+          <t>[['A', 'E', 'E/5']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[('0:01:58', '0:02:01.030000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:59.907505', '0:01:03.843287')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06785714285714287</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A#/F', 'F:7', 'A#']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(46.75, 47.53)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(271.22, 275.78)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:21.280000', '0:00:41.800000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>isophonics_19</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
+          <t>[['F', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(8.34, 16.5)]</t>
+          <t>[['G:maj', 'G:7/F', 'C:maj/E']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(17.9, 20.7)]</t>
+          <t>[('0:00:38.438956', '0:00:41.945170')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:51.800000', '0:00:59.900000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06361746361746362</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
-        </is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_48</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1418067226890756</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['A', 'D', 'D/5'], ['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(60.761383, 69.294716)]</t>
+          <t>[['E', 'A', 'A'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(16.02, 22.5)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:13.657911', '0:00:17.965212'), ('0:00:01.014823', '0:00:12.241493')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:41.389275', '0:01:45.127688'), ('0:01:22.290863', '0:01:30.185647')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_174</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(6.16, 23.86)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(140.86, 144.1)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:01:47.100000', '0:01:51.480000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:40.240000', '0:01:44.560000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3028846153846154</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(80.22, 87.22)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(1.56, 6.9)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_65</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_16</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1006475225225225</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab:maj6', 'Eb:7', 'Ab:maj6']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4821428571428572</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min7', 'E:7', 'A:maj6', 'E:7', 'A:maj6']]</t>
+          <t>[['D', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(8.04, 11.12)]</t>
+          <t>[['D', 'G', 'C'], ['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(20.3, 25.0)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:11.337709', '0:00:19.847823'), ('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:29.739000', '0:01:44.707000'), ('0:00:00.279000', '0:00:16.531000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.08907563025210083</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_57</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4526315789473684</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(26.13, 29.49)]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(64.58, 73.88)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:02:15.687550', '0:02:19.228594')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'C:maj', 'G/3', 'D:maj'], ['D:maj', 'A:maj', 'D:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E', 'D', 'A', 'E'], ['E', 'B', 'E', 'A']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(73.89, 84.701), (27.771, 43.971)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(22.169818, 26.29136), (38.714036, 44.240385)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:06.600000', '0:00:19.060000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:57.500000', '0:00:59.680000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(62.5, 72.76)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.24, 9.28)]</t>
+          <t>[('0:00:22.360000', '0:00:25.240000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:01.440000', '0:01:04.220000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07984496124031007</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'G#:dim7', 'A:min'], ['E:7', 'A:min', 'A:min', 'B:hdim7/D'], ['A:min', 'G#:dim7', 'A:min', 'G#:dim7']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'B:dim7/C', 'C:min'], ['G:7', 'C:min', 'C:min', 'D:hdim7/C'], ['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(19.36, 25.14), (13.66, 19.36), (20.84, 26.58)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(66.92, 75.86), (21.42, 28.06), (1.26, 7.3)]</t>
+          <t>[('0:01:00.680000', '0:01:06.800000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:01.260000', '0:01:07.540000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_192</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1052631578947368</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'G', 'C']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(53.458869, 60.807985)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(74.008366, 80.742154)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:01:00.680000', '0:01:06.800000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:02.580000', '0:01:09.180000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2392241379310345</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(55.18, 62.06)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(8.413696, 11.072593)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_287</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_109</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.546875</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A/3', 'D', 'A']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(65.81034, 71.679931)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(94.925, 100.821)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:02.360000', '0:00:24.960000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.300000', '0:00:20.700000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
